--- a/AnimalDex.xlsx
+++ b/AnimalDex.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alessandro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8DFF67-5C94-4737-949B-795DFAFD8E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXAMPLE Gantt Chart &amp; Burndown" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Release Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="User Stories or Tasks" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="188">
   <si>
     <t>SCRUM PROJECT MANAGEMENT GANTT CHART</t>
   </si>
@@ -371,12 +377,6 @@
     <t>user preferencies</t>
   </si>
   <si>
-    <t>user upload animal certificate</t>
-  </si>
-  <si>
-    <t>as a user I want to upload a photo certifiyng the encounter of the animal in order to obtain points</t>
-  </si>
-  <si>
     <t>user competition</t>
   </si>
   <si>
@@ -398,15 +398,6 @@
     <t>user report</t>
   </si>
   <si>
-    <t>user like/dislike</t>
-  </si>
-  <si>
-    <t>as a user I want to express like or dislike on a content</t>
-  </si>
-  <si>
-    <t>as a user I want to define my preferences on favourite animal and notifications</t>
-  </si>
-  <si>
     <t xml:space="preserve">as a user I want to report other users who misbehave </t>
   </si>
   <si>
@@ -426,12 +417,6 @@
   </si>
   <si>
     <t>as a user on the ranking podium after a season I'm gaining a badge on my profile</t>
-  </si>
-  <si>
-    <t>as a user I want to view the interactive homepage map divided by areas</t>
-  </si>
-  <si>
-    <t>user interactive map</t>
   </si>
   <si>
     <t>user forum filter</t>
@@ -468,9 +453,6 @@
   </si>
   <si>
     <t>SCRUM definition</t>
-  </si>
-  <si>
-    <t>as a user I want to ask for help by sending an email to the help center reporting my issue</t>
   </si>
   <si>
     <t>user issues</t>
@@ -601,12 +583,30 @@
   <si>
     <t>as a user I want to edit my personal info and change my credentials associated to my account</t>
   </si>
+  <si>
+    <t>user animal certificate</t>
+  </si>
+  <si>
+    <t>as a user I want to upload/update a photo certifiyng the encounter of the animal in order to obtain points</t>
+  </si>
+  <si>
+    <t>user map</t>
+  </si>
+  <si>
+    <t>as a user I want to view the homepage map divided by areas</t>
+  </si>
+  <si>
+    <t>as a user I want to define my preferences on favourite animal and notifications about comments and operators</t>
+  </si>
+  <si>
+    <t>as a user I want to ask for help by reporting my issue to an admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -742,6 +742,12 @@
       <sz val="9"/>
       <color rgb="FF716767"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1942,7 +1948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2293,6 +2299,9 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2518,7 +2527,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="1"/>
@@ -2550,7 +2559,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2614,7 +2622,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2893,10 +2901,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6309-415A-9B2A-8CEC22EBC916}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -2911,6 +2916,9 @@
                 </c14:spPr>
               </c14:invertSolidFillFmt>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6309-415A-9B2A-8CEC22EBC916}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
@@ -2922,8 +2930,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148696576"/>
-        <c:axId val="138324224"/>
+        <c:axId val="136473088"/>
+        <c:axId val="170028416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3333,7 +3341,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6309-415A-9B2A-8CEC22EBC916}"/>
             </c:ext>
@@ -3744,7 +3752,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6309-415A-9B2A-8CEC22EBC916}"/>
             </c:ext>
@@ -4155,7 +4163,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6309-415A-9B2A-8CEC22EBC916}"/>
             </c:ext>
@@ -4171,11 +4179,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148696064"/>
-        <c:axId val="138323648"/>
+        <c:axId val="136472576"/>
+        <c:axId val="170027840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148696064"/>
+        <c:axId val="136472576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,7 +4207,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4221,7 +4228,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138323648"/>
+        <c:crossAx val="170027840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4229,7 +4236,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138323648"/>
+        <c:axId val="170027840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4273,7 +4280,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4298,12 +4304,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148696064"/>
+        <c:crossAx val="136472576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="148696576"/>
+        <c:axId val="136473088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4313,7 +4319,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138324224"/>
+        <c:crossAx val="170028416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4321,7 +4327,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138324224"/>
+        <c:axId val="170028416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,7 +4371,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4390,7 +4395,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148696576"/>
+        <c:crossAx val="136473088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4402,7 +4407,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4438,7 +4442,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="1"/>
@@ -4470,7 +4474,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4534,7 +4537,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4738,10 +4741,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B83-4C3C-A1FB-BFF5EF056244}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -4756,6 +4756,9 @@
                 </c14:spPr>
               </c14:invertSolidFillFmt>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B83-4C3C-A1FB-BFF5EF056244}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
@@ -4767,8 +4770,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="228081152"/>
-        <c:axId val="138327680"/>
+        <c:axId val="137339904"/>
+        <c:axId val="170031872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4995,190 +4998,190 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8333333333333339</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6666666666666679</c:v>
+                  <c:v>11.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5000000000000018</c:v>
+                  <c:v>11.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3333333333333357</c:v>
+                  <c:v>11.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1666666666666696</c:v>
+                  <c:v>11.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0000000000000036</c:v>
+                  <c:v>10.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8333333333333375</c:v>
+                  <c:v>10.600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6666666666666714</c:v>
+                  <c:v>10.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5000000000000053</c:v>
+                  <c:v>10.200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3333333333333393</c:v>
+                  <c:v>10.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1666666666666732</c:v>
+                  <c:v>9.8000000000000078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0000000000000071</c:v>
+                  <c:v>9.6000000000000085</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8333333333333401</c:v>
+                  <c:v>9.4000000000000092</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6666666666666732</c:v>
+                  <c:v>9.2000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5000000000000062</c:v>
+                  <c:v>9.0000000000000107</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3333333333333393</c:v>
+                  <c:v>8.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1666666666666723</c:v>
+                  <c:v>8.6000000000000121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0000000000000053</c:v>
+                  <c:v>8.4000000000000128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8333333333333384</c:v>
+                  <c:v>8.2000000000000135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6666666666666714</c:v>
+                  <c:v>8.0000000000000142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5000000000000044</c:v>
+                  <c:v>7.800000000000014</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.3333333333333375</c:v>
+                  <c:v>7.6000000000000139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.1666666666666705</c:v>
+                  <c:v>7.4000000000000137</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.0000000000000036</c:v>
+                  <c:v>7.2000000000000135</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.8333333333333366</c:v>
+                  <c:v>7.0000000000000133</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.6666666666666696</c:v>
+                  <c:v>6.8000000000000131</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5000000000000027</c:v>
+                  <c:v>6.600000000000013</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3333333333333357</c:v>
+                  <c:v>6.4000000000000128</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1666666666666687</c:v>
+                  <c:v>6.2000000000000126</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0000000000000018</c:v>
+                  <c:v>6.0000000000000124</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.8333333333333348</c:v>
+                  <c:v>5.8000000000000123</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.6666666666666679</c:v>
+                  <c:v>5.6000000000000121</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.5000000000000009</c:v>
+                  <c:v>5.4000000000000119</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.3333333333333339</c:v>
+                  <c:v>5.2000000000000117</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>5.0000000000000115</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>4.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>4.6000000000000112</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.666666666666667</c:v>
+                  <c:v>4.400000000000011</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5000000000000004</c:v>
+                  <c:v>4.2000000000000108</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.3333333333333339</c:v>
+                  <c:v>4.0000000000000107</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1666666666666674</c:v>
+                  <c:v>3.8000000000000105</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.0000000000000009</c:v>
+                  <c:v>3.6000000000000103</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.8333333333333344</c:v>
+                  <c:v>3.4000000000000101</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.6666666666666679</c:v>
+                  <c:v>3.2000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.5000000000000013</c:v>
+                  <c:v>3.0000000000000098</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3333333333333348</c:v>
+                  <c:v>2.8000000000000096</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.1666666666666683</c:v>
+                  <c:v>2.6000000000000094</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0000000000000018</c:v>
+                  <c:v>2.4000000000000092</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.833333333333335</c:v>
+                  <c:v>2.2000000000000091</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6666666666666683</c:v>
+                  <c:v>2.0000000000000089</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5000000000000016</c:v>
+                  <c:v>1.8000000000000089</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3333333333333348</c:v>
+                  <c:v>1.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1666666666666681</c:v>
+                  <c:v>1.400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0000000000000013</c:v>
+                  <c:v>1.2000000000000091</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.8333333333333347</c:v>
+                  <c:v>1.0000000000000091</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.66666666666666807</c:v>
+                  <c:v>0.80000000000000915</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.50000000000000144</c:v>
+                  <c:v>0.60000000000000919</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.33333333333333481</c:v>
+                  <c:v>0.40000000000000918</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.16666666666666816</c:v>
+                  <c:v>0.20000000000000917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B83-4C3C-A1FB-BFF5EF056244}"/>
             </c:ext>
@@ -5406,190 +5409,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B83-4C3C-A1FB-BFF5EF056244}"/>
             </c:ext>
@@ -5605,11 +5608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228080128"/>
-        <c:axId val="138327104"/>
+        <c:axId val="137338880"/>
+        <c:axId val="170031296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228080128"/>
+        <c:axId val="137338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5633,7 +5636,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5655,7 +5657,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138327104"/>
+        <c:crossAx val="170031296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5663,7 +5665,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138327104"/>
+        <c:axId val="170031296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5707,7 +5709,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5732,12 +5733,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228080128"/>
+        <c:crossAx val="137338880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="228081152"/>
+        <c:axId val="137339904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5747,7 +5748,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138327680"/>
+        <c:crossAx val="170031872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5755,7 +5756,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138327680"/>
+        <c:axId val="170031872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,7 +5800,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5824,7 +5824,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228081152"/>
+        <c:crossAx val="137339904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5836,7 +5836,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5886,7 +5885,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5917,7 +5916,7 @@
         <xdr:cNvPr id="3" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5956,7 +5955,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5987,7 +5986,7 @@
         <xdr:cNvPr id="3" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6012,9 +6011,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6052,7 +6051,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6124,7 +6123,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6297,14 +6296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7B3C16"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:BV1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6456,19 +6455,19 @@
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2"/>
-      <c r="BK2" s="145" t="str">
+      <c r="BK2" s="146" t="str">
         <f>HYPERLINK("https://goo.gl/ejIdKR","https://goo.gl/ejIdKR")</f>
         <v>https://goo.gl/ejIdKR</v>
       </c>
-      <c r="BL2" s="146"/>
-      <c r="BM2" s="146"/>
-      <c r="BN2" s="146"/>
-      <c r="BO2" s="146"/>
-      <c r="BP2" s="146"/>
-      <c r="BQ2" s="146"/>
-      <c r="BR2" s="146"/>
-      <c r="BS2" s="146"/>
-      <c r="BT2" s="146"/>
+      <c r="BL2" s="147"/>
+      <c r="BM2" s="147"/>
+      <c r="BN2" s="147"/>
+      <c r="BO2" s="147"/>
+      <c r="BP2" s="147"/>
+      <c r="BQ2" s="147"/>
+      <c r="BR2" s="147"/>
+      <c r="BS2" s="147"/>
+      <c r="BT2" s="147"/>
     </row>
     <row r="3" spans="2:74" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -6496,7 +6495,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="148" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -6573,7 +6572,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="148"/>
+      <c r="K5" s="149"/>
       <c r="L5" s="13" t="s">
         <v>4</v>
       </c>
@@ -6648,7 +6647,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="148"/>
+      <c r="K6" s="149"/>
       <c r="L6" s="18" t="s">
         <v>5</v>
       </c>
@@ -6723,7 +6722,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="20" t="s">
         <v>6</v>
       </c>
@@ -6798,7 +6797,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="149"/>
+      <c r="K8" s="150"/>
       <c r="L8" s="22" t="s">
         <v>7</v>
       </c>
@@ -6864,124 +6863,124 @@
       <c r="BT8" s="17"/>
     </row>
     <row r="9" spans="2:74" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="156" t="s">
+      <c r="E9" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="159" t="s">
+      <c r="F9" s="158"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="164" t="s">
+      <c r="I9" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="168" t="s">
+      <c r="K9" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="169" t="s">
+      <c r="L9" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="171" t="s">
+      <c r="M9" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="173" t="s">
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="173" t="s">
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="174" t="s">
+      <c r="X9" s="144"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="AC9" s="143"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="172"/>
-      <c r="AG9" s="175" t="s">
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AH9" s="143"/>
-      <c r="AI9" s="143"/>
-      <c r="AJ9" s="143"/>
-      <c r="AK9" s="172"/>
-      <c r="AL9" s="175" t="s">
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="173"/>
+      <c r="AL9" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="143"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="143"/>
-      <c r="AP9" s="144"/>
-      <c r="AQ9" s="176" t="s">
+      <c r="AM9" s="144"/>
+      <c r="AN9" s="144"/>
+      <c r="AO9" s="144"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="AR9" s="143"/>
-      <c r="AS9" s="143"/>
-      <c r="AT9" s="143"/>
-      <c r="AU9" s="172"/>
-      <c r="AV9" s="177" t="s">
+      <c r="AR9" s="144"/>
+      <c r="AS9" s="144"/>
+      <c r="AT9" s="144"/>
+      <c r="AU9" s="173"/>
+      <c r="AV9" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="AW9" s="143"/>
-      <c r="AX9" s="143"/>
-      <c r="AY9" s="143"/>
-      <c r="AZ9" s="172"/>
-      <c r="BA9" s="177" t="s">
+      <c r="AW9" s="144"/>
+      <c r="AX9" s="144"/>
+      <c r="AY9" s="144"/>
+      <c r="AZ9" s="173"/>
+      <c r="BA9" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="143"/>
-      <c r="BC9" s="143"/>
-      <c r="BD9" s="143"/>
-      <c r="BE9" s="144"/>
-      <c r="BF9" s="178" t="s">
+      <c r="BB9" s="144"/>
+      <c r="BC9" s="144"/>
+      <c r="BD9" s="144"/>
+      <c r="BE9" s="145"/>
+      <c r="BF9" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="BG9" s="143"/>
-      <c r="BH9" s="143"/>
-      <c r="BI9" s="143"/>
-      <c r="BJ9" s="172"/>
-      <c r="BK9" s="142" t="s">
+      <c r="BG9" s="144"/>
+      <c r="BH9" s="144"/>
+      <c r="BI9" s="144"/>
+      <c r="BJ9" s="173"/>
+      <c r="BK9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="BL9" s="143"/>
-      <c r="BM9" s="143"/>
-      <c r="BN9" s="143"/>
-      <c r="BO9" s="172"/>
-      <c r="BP9" s="142" t="s">
+      <c r="BL9" s="144"/>
+      <c r="BM9" s="144"/>
+      <c r="BN9" s="144"/>
+      <c r="BO9" s="173"/>
+      <c r="BP9" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="143"/>
-      <c r="BR9" s="143"/>
-      <c r="BS9" s="143"/>
-      <c r="BT9" s="144"/>
+      <c r="BQ9" s="144"/>
+      <c r="BR9" s="144"/>
+      <c r="BS9" s="144"/>
+      <c r="BT9" s="145"/>
     </row>
     <row r="10" spans="2:74" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="151"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="155"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="24" t="s">
         <v>29</v>
       </c>
@@ -6991,11 +6990,11 @@
       <c r="G10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="160"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="170"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="171"/>
       <c r="M10" s="27" t="s">
         <v>32</v>
       </c>
@@ -10604,80 +10603,80 @@
     <row r="43" spans="2:74" ht="223.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:74" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="161" t="str">
+      <c r="B45" s="162" t="str">
         <f>HYPERLINK("https://goo.gl/ejIdKR","CLICK HERE TO CREATE GANTT CHART TEMPLATES IN SMARTSHEET")</f>
         <v>CLICK HERE TO CREATE GANTT CHART TEMPLATES IN SMARTSHEET</v>
       </c>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="162"/>
-      <c r="J45" s="162"/>
-      <c r="K45" s="162"/>
-      <c r="L45" s="162"/>
-      <c r="M45" s="162"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="162"/>
-      <c r="P45" s="162"/>
-      <c r="Q45" s="162"/>
-      <c r="R45" s="162"/>
-      <c r="S45" s="162"/>
-      <c r="T45" s="162"/>
-      <c r="U45" s="162"/>
-      <c r="V45" s="162"/>
-      <c r="W45" s="162"/>
-      <c r="X45" s="162"/>
-      <c r="Y45" s="162"/>
-      <c r="Z45" s="162"/>
-      <c r="AA45" s="162"/>
-      <c r="AB45" s="162"/>
-      <c r="AC45" s="162"/>
-      <c r="AD45" s="162"/>
-      <c r="AE45" s="162"/>
-      <c r="AF45" s="162"/>
-      <c r="AG45" s="162"/>
-      <c r="AH45" s="162"/>
-      <c r="AI45" s="162"/>
-      <c r="AJ45" s="162"/>
-      <c r="AK45" s="162"/>
-      <c r="AL45" s="162"/>
-      <c r="AM45" s="162"/>
-      <c r="AN45" s="162"/>
-      <c r="AO45" s="162"/>
-      <c r="AP45" s="162"/>
-      <c r="AQ45" s="162"/>
-      <c r="AR45" s="162"/>
-      <c r="AS45" s="162"/>
-      <c r="AT45" s="162"/>
-      <c r="AU45" s="162"/>
-      <c r="AV45" s="162"/>
-      <c r="AW45" s="162"/>
-      <c r="AX45" s="162"/>
-      <c r="AY45" s="162"/>
-      <c r="AZ45" s="162"/>
-      <c r="BA45" s="162"/>
-      <c r="BB45" s="162"/>
-      <c r="BC45" s="162"/>
-      <c r="BD45" s="162"/>
-      <c r="BE45" s="162"/>
-      <c r="BF45" s="162"/>
-      <c r="BG45" s="162"/>
-      <c r="BH45" s="162"/>
-      <c r="BI45" s="162"/>
-      <c r="BJ45" s="162"/>
-      <c r="BK45" s="162"/>
-      <c r="BL45" s="162"/>
-      <c r="BM45" s="162"/>
-      <c r="BN45" s="162"/>
-      <c r="BO45" s="162"/>
-      <c r="BP45" s="162"/>
-      <c r="BQ45" s="162"/>
-      <c r="BR45" s="162"/>
-      <c r="BS45" s="162"/>
-      <c r="BT45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="163"/>
+      <c r="J45" s="163"/>
+      <c r="K45" s="163"/>
+      <c r="L45" s="163"/>
+      <c r="M45" s="163"/>
+      <c r="N45" s="163"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="163"/>
+      <c r="Q45" s="163"/>
+      <c r="R45" s="163"/>
+      <c r="S45" s="163"/>
+      <c r="T45" s="163"/>
+      <c r="U45" s="163"/>
+      <c r="V45" s="163"/>
+      <c r="W45" s="163"/>
+      <c r="X45" s="163"/>
+      <c r="Y45" s="163"/>
+      <c r="Z45" s="163"/>
+      <c r="AA45" s="163"/>
+      <c r="AB45" s="163"/>
+      <c r="AC45" s="163"/>
+      <c r="AD45" s="163"/>
+      <c r="AE45" s="163"/>
+      <c r="AF45" s="163"/>
+      <c r="AG45" s="163"/>
+      <c r="AH45" s="163"/>
+      <c r="AI45" s="163"/>
+      <c r="AJ45" s="163"/>
+      <c r="AK45" s="163"/>
+      <c r="AL45" s="163"/>
+      <c r="AM45" s="163"/>
+      <c r="AN45" s="163"/>
+      <c r="AO45" s="163"/>
+      <c r="AP45" s="163"/>
+      <c r="AQ45" s="163"/>
+      <c r="AR45" s="163"/>
+      <c r="AS45" s="163"/>
+      <c r="AT45" s="163"/>
+      <c r="AU45" s="163"/>
+      <c r="AV45" s="163"/>
+      <c r="AW45" s="163"/>
+      <c r="AX45" s="163"/>
+      <c r="AY45" s="163"/>
+      <c r="AZ45" s="163"/>
+      <c r="BA45" s="163"/>
+      <c r="BB45" s="163"/>
+      <c r="BC45" s="163"/>
+      <c r="BD45" s="163"/>
+      <c r="BE45" s="163"/>
+      <c r="BF45" s="163"/>
+      <c r="BG45" s="163"/>
+      <c r="BH45" s="163"/>
+      <c r="BI45" s="163"/>
+      <c r="BJ45" s="163"/>
+      <c r="BK45" s="163"/>
+      <c r="BL45" s="163"/>
+      <c r="BM45" s="163"/>
+      <c r="BN45" s="163"/>
+      <c r="BO45" s="163"/>
+      <c r="BP45" s="163"/>
+      <c r="BQ45" s="163"/>
+      <c r="BR45" s="163"/>
+      <c r="BS45" s="163"/>
+      <c r="BT45" s="164"/>
     </row>
     <row r="46" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11671,15 +11670,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7B3C16"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:BV1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11792,7 +11791,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="148" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -11869,7 +11868,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="148"/>
+      <c r="K4" s="149"/>
       <c r="L4" s="13" t="s">
         <v>4</v>
       </c>
@@ -11944,7 +11943,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="148"/>
+      <c r="K5" s="149"/>
       <c r="L5" s="18" t="s">
         <v>5</v>
       </c>
@@ -12019,7 +12018,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="148"/>
+      <c r="K6" s="149"/>
       <c r="L6" s="20" t="s">
         <v>6</v>
       </c>
@@ -12094,7 +12093,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="149"/>
+      <c r="K7" s="150"/>
       <c r="L7" s="22" t="s">
         <v>7</v>
       </c>
@@ -12160,124 +12159,124 @@
       <c r="BT7" s="17"/>
     </row>
     <row r="8" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="157"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="159" t="s">
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="164" t="s">
+      <c r="I8" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="166" t="s">
+      <c r="J8" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="168" t="s">
+      <c r="K8" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="169" t="s">
+      <c r="L8" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="171" t="s">
+      <c r="M8" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="173" t="s">
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="173" t="s">
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="174" t="s">
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="144"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="172"/>
-      <c r="AG8" s="175" t="s">
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AH8" s="143"/>
-      <c r="AI8" s="143"/>
-      <c r="AJ8" s="143"/>
-      <c r="AK8" s="172"/>
-      <c r="AL8" s="175" t="s">
+      <c r="AH8" s="144"/>
+      <c r="AI8" s="144"/>
+      <c r="AJ8" s="144"/>
+      <c r="AK8" s="173"/>
+      <c r="AL8" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="AM8" s="143"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="144"/>
-      <c r="AQ8" s="176" t="s">
+      <c r="AM8" s="144"/>
+      <c r="AN8" s="144"/>
+      <c r="AO8" s="144"/>
+      <c r="AP8" s="145"/>
+      <c r="AQ8" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="172"/>
-      <c r="AV8" s="177" t="s">
+      <c r="AR8" s="144"/>
+      <c r="AS8" s="144"/>
+      <c r="AT8" s="144"/>
+      <c r="AU8" s="173"/>
+      <c r="AV8" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="AW8" s="143"/>
-      <c r="AX8" s="143"/>
-      <c r="AY8" s="143"/>
-      <c r="AZ8" s="172"/>
-      <c r="BA8" s="177" t="s">
+      <c r="AW8" s="144"/>
+      <c r="AX8" s="144"/>
+      <c r="AY8" s="144"/>
+      <c r="AZ8" s="173"/>
+      <c r="BA8" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="BB8" s="143"/>
-      <c r="BC8" s="143"/>
-      <c r="BD8" s="143"/>
-      <c r="BE8" s="144"/>
-      <c r="BF8" s="178" t="s">
+      <c r="BB8" s="144"/>
+      <c r="BC8" s="144"/>
+      <c r="BD8" s="144"/>
+      <c r="BE8" s="145"/>
+      <c r="BF8" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="BG8" s="143"/>
-      <c r="BH8" s="143"/>
-      <c r="BI8" s="143"/>
-      <c r="BJ8" s="172"/>
-      <c r="BK8" s="142" t="s">
+      <c r="BG8" s="144"/>
+      <c r="BH8" s="144"/>
+      <c r="BI8" s="144"/>
+      <c r="BJ8" s="173"/>
+      <c r="BK8" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="BL8" s="143"/>
-      <c r="BM8" s="143"/>
-      <c r="BN8" s="143"/>
-      <c r="BO8" s="172"/>
-      <c r="BP8" s="142" t="s">
+      <c r="BL8" s="144"/>
+      <c r="BM8" s="144"/>
+      <c r="BN8" s="144"/>
+      <c r="BO8" s="173"/>
+      <c r="BP8" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="BQ8" s="143"/>
-      <c r="BR8" s="143"/>
-      <c r="BS8" s="143"/>
-      <c r="BT8" s="144"/>
+      <c r="BQ8" s="144"/>
+      <c r="BR8" s="144"/>
+      <c r="BS8" s="144"/>
+      <c r="BT8" s="145"/>
     </row>
     <row r="9" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="151"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="155"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="24" t="s">
         <v>29</v>
       </c>
@@ -12287,11 +12286,11 @@
       <c r="G9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="160"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="170"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="171"/>
       <c r="M9" s="27" t="s">
         <v>32</v>
       </c>
@@ -12478,12 +12477,12 @@
         <v>1</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="42">
         <f t="shared" ref="E10:G10" si="0">SUM(E11:E17)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="43">
         <f t="shared" si="0"/>
@@ -12491,7 +12490,7 @@
       </c>
       <c r="G10" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="46"/>
@@ -12499,7 +12498,7 @@
       <c r="K10" s="48"/>
       <c r="L10" s="49">
         <f t="shared" ref="L10:L34" si="1">F10/E10</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M10" s="50"/>
       <c r="N10" s="51"/>
@@ -12567,7 +12566,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="56">
@@ -12661,7 +12660,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="56">
@@ -12755,33 +12754,33 @@
         <v>1.2</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="57">
         <v>3</v>
       </c>
       <c r="G13" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="59"/>
       <c r="I13" s="60">
         <v>45364</v>
       </c>
       <c r="J13" s="61">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="K13" s="62">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="63">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M13" s="64"/>
       <c r="N13" s="65"/>
@@ -12791,7 +12790,7 @@
       <c r="R13" s="67"/>
       <c r="S13" s="67"/>
       <c r="T13" s="110"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="110"/>
       <c r="V13" s="67"/>
       <c r="W13" s="65"/>
       <c r="X13" s="65"/>
@@ -12849,7 +12848,7 @@
         <v>1.3</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="56"/>
@@ -13187,7 +13186,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="42">
@@ -14647,7 +14646,7 @@
       </c>
       <c r="E36" s="101">
         <f t="shared" ref="E36:G36" si="13">SUM(E11:E17,E19:E22,E24:E29,E31:E34)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F36" s="101">
         <f t="shared" si="13"/>
@@ -14655,14 +14654,14 @@
       </c>
       <c r="G36" s="101">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="101">
         <v>60</v>
       </c>
       <c r="I36" s="101">
         <f>E36/H36</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="L36" s="102" t="s">
         <v>77</v>
@@ -14860,243 +14859,243 @@
       </c>
       <c r="M37" s="105">
         <f>E36</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N37" s="106">
         <f>M37-I36</f>
-        <v>9.8333333333333339</v>
+        <v>11.8</v>
       </c>
       <c r="O37" s="106">
         <f>N37-I36</f>
-        <v>9.6666666666666679</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="P37" s="106">
         <f>O37-I36</f>
-        <v>9.5000000000000018</v>
+        <v>11.400000000000002</v>
       </c>
       <c r="Q37" s="106">
         <f>P37-I36</f>
-        <v>9.3333333333333357</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="R37" s="106">
         <f>Q37-I36</f>
-        <v>9.1666666666666696</v>
+        <v>11.000000000000004</v>
       </c>
       <c r="S37" s="106">
         <f>R37-I36</f>
-        <v>9.0000000000000036</v>
+        <v>10.800000000000004</v>
       </c>
       <c r="T37" s="106">
         <f>S37-I36</f>
-        <v>8.8333333333333375</v>
+        <v>10.600000000000005</v>
       </c>
       <c r="U37" s="106">
         <f>T37-I36</f>
-        <v>8.6666666666666714</v>
+        <v>10.400000000000006</v>
       </c>
       <c r="V37" s="106">
         <f>U37-I36</f>
-        <v>8.5000000000000053</v>
+        <v>10.200000000000006</v>
       </c>
       <c r="W37" s="106">
         <f>V37-I36</f>
-        <v>8.3333333333333393</v>
+        <v>10.000000000000007</v>
       </c>
       <c r="X37" s="106">
         <f>W37-I36</f>
-        <v>8.1666666666666732</v>
+        <v>9.8000000000000078</v>
       </c>
       <c r="Y37" s="106">
         <f>X37-I36</f>
-        <v>8.0000000000000071</v>
+        <v>9.6000000000000085</v>
       </c>
       <c r="Z37" s="106">
         <f>Y37-I36</f>
-        <v>7.8333333333333401</v>
+        <v>9.4000000000000092</v>
       </c>
       <c r="AA37" s="106">
         <f>Z37-I36</f>
-        <v>7.6666666666666732</v>
+        <v>9.2000000000000099</v>
       </c>
       <c r="AB37" s="106">
         <f>AA37-I36</f>
-        <v>7.5000000000000062</v>
+        <v>9.0000000000000107</v>
       </c>
       <c r="AC37" s="106">
         <f>AB37-I36</f>
-        <v>7.3333333333333393</v>
+        <v>8.8000000000000114</v>
       </c>
       <c r="AD37" s="106">
         <f>AC37-I36</f>
-        <v>7.1666666666666723</v>
+        <v>8.6000000000000121</v>
       </c>
       <c r="AE37" s="106">
         <f>AD37-I36</f>
-        <v>7.0000000000000053</v>
+        <v>8.4000000000000128</v>
       </c>
       <c r="AF37" s="106">
         <f>AE37-I36</f>
-        <v>6.8333333333333384</v>
+        <v>8.2000000000000135</v>
       </c>
       <c r="AG37" s="106">
         <f>AF37-I36</f>
-        <v>6.6666666666666714</v>
+        <v>8.0000000000000142</v>
       </c>
       <c r="AH37" s="106">
         <f>AG37-I36</f>
-        <v>6.5000000000000044</v>
+        <v>7.800000000000014</v>
       </c>
       <c r="AI37" s="106">
         <f>AH37-I36</f>
-        <v>6.3333333333333375</v>
+        <v>7.6000000000000139</v>
       </c>
       <c r="AJ37" s="106">
         <f>AI37-I36</f>
-        <v>6.1666666666666705</v>
+        <v>7.4000000000000137</v>
       </c>
       <c r="AK37" s="106">
         <f>AJ37-I36</f>
-        <v>6.0000000000000036</v>
+        <v>7.2000000000000135</v>
       </c>
       <c r="AL37" s="106">
         <f>AK37-I36</f>
-        <v>5.8333333333333366</v>
+        <v>7.0000000000000133</v>
       </c>
       <c r="AM37" s="106">
         <f>AL37-I36</f>
-        <v>5.6666666666666696</v>
+        <v>6.8000000000000131</v>
       </c>
       <c r="AN37" s="106">
         <f>AM37-I36</f>
-        <v>5.5000000000000027</v>
+        <v>6.600000000000013</v>
       </c>
       <c r="AO37" s="106">
         <f>AN37-I36</f>
-        <v>5.3333333333333357</v>
+        <v>6.4000000000000128</v>
       </c>
       <c r="AP37" s="106">
         <f>AO37-I36</f>
-        <v>5.1666666666666687</v>
+        <v>6.2000000000000126</v>
       </c>
       <c r="AQ37" s="106">
         <f>AP37-I36</f>
-        <v>5.0000000000000018</v>
+        <v>6.0000000000000124</v>
       </c>
       <c r="AR37" s="106">
         <f>AQ37-I36</f>
-        <v>4.8333333333333348</v>
+        <v>5.8000000000000123</v>
       </c>
       <c r="AS37" s="106">
         <f>AR37-I36</f>
-        <v>4.6666666666666679</v>
+        <v>5.6000000000000121</v>
       </c>
       <c r="AT37" s="106">
         <f>AS37-I36</f>
-        <v>4.5000000000000009</v>
+        <v>5.4000000000000119</v>
       </c>
       <c r="AU37" s="106">
         <f>AT37-I36</f>
-        <v>4.3333333333333339</v>
+        <v>5.2000000000000117</v>
       </c>
       <c r="AV37" s="106">
         <f>AU37-I36</f>
-        <v>4.166666666666667</v>
+        <v>5.0000000000000115</v>
       </c>
       <c r="AW37" s="106">
         <f>AV37-I36</f>
-        <v>4</v>
+        <v>4.8000000000000114</v>
       </c>
       <c r="AX37" s="106">
         <f>AW37-I36</f>
-        <v>3.8333333333333335</v>
+        <v>4.6000000000000112</v>
       </c>
       <c r="AY37" s="106">
         <f>AX37-I36</f>
-        <v>3.666666666666667</v>
+        <v>4.400000000000011</v>
       </c>
       <c r="AZ37" s="106">
         <f>AY37-I36</f>
-        <v>3.5000000000000004</v>
+        <v>4.2000000000000108</v>
       </c>
       <c r="BA37" s="106">
         <f>AZ37-I36</f>
-        <v>3.3333333333333339</v>
+        <v>4.0000000000000107</v>
       </c>
       <c r="BB37" s="106">
         <f>BA37-I36</f>
-        <v>3.1666666666666674</v>
+        <v>3.8000000000000105</v>
       </c>
       <c r="BC37" s="106">
         <f>BB37-I36</f>
-        <v>3.0000000000000009</v>
+        <v>3.6000000000000103</v>
       </c>
       <c r="BD37" s="106">
         <f>BC37-I36</f>
-        <v>2.8333333333333344</v>
+        <v>3.4000000000000101</v>
       </c>
       <c r="BE37" s="106">
         <f>BD37-I36</f>
-        <v>2.6666666666666679</v>
+        <v>3.2000000000000099</v>
       </c>
       <c r="BF37" s="106">
         <f>BE37-I36</f>
-        <v>2.5000000000000013</v>
+        <v>3.0000000000000098</v>
       </c>
       <c r="BG37" s="106">
         <f>BF37-I36</f>
-        <v>2.3333333333333348</v>
+        <v>2.8000000000000096</v>
       </c>
       <c r="BH37" s="106">
         <f>BG37-I36</f>
-        <v>2.1666666666666683</v>
+        <v>2.6000000000000094</v>
       </c>
       <c r="BI37" s="106">
         <f>BH37-I36</f>
-        <v>2.0000000000000018</v>
+        <v>2.4000000000000092</v>
       </c>
       <c r="BJ37" s="106">
         <f>BI37-I36</f>
-        <v>1.833333333333335</v>
+        <v>2.2000000000000091</v>
       </c>
       <c r="BK37" s="106">
         <f>BJ37-I36</f>
-        <v>1.6666666666666683</v>
+        <v>2.0000000000000089</v>
       </c>
       <c r="BL37" s="106">
         <f>BK37-I36</f>
-        <v>1.5000000000000016</v>
+        <v>1.8000000000000089</v>
       </c>
       <c r="BM37" s="106">
         <f>BL37-I36</f>
-        <v>1.3333333333333348</v>
+        <v>1.600000000000009</v>
       </c>
       <c r="BN37" s="106">
         <f>BM37-I36</f>
-        <v>1.1666666666666681</v>
+        <v>1.400000000000009</v>
       </c>
       <c r="BO37" s="106">
         <f>BN37-I36</f>
-        <v>1.0000000000000013</v>
+        <v>1.2000000000000091</v>
       </c>
       <c r="BP37" s="106">
         <f>BO37-I36</f>
-        <v>0.8333333333333347</v>
+        <v>1.0000000000000091</v>
       </c>
       <c r="BQ37" s="106">
         <f>BP37-I36</f>
-        <v>0.66666666666666807</v>
+        <v>0.80000000000000915</v>
       </c>
       <c r="BR37" s="106">
         <f>BQ37-I36</f>
-        <v>0.50000000000000144</v>
+        <v>0.60000000000000919</v>
       </c>
       <c r="BS37" s="106">
         <f>BR37-I36</f>
-        <v>0.33333333333333481</v>
+        <v>0.40000000000000918</v>
       </c>
       <c r="BT37" s="106">
         <f>BS37-I36</f>
-        <v>0.16666666666666816</v>
+        <v>0.20000000000000917</v>
       </c>
       <c r="BV37" s="101"/>
     </row>
@@ -15106,247 +15105,247 @@
       </c>
       <c r="M38" s="105">
         <f>E36</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N38" s="105">
         <f t="shared" ref="N38:BT38" si="14">M40</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BE38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BG38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BH38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BJ38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BL38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BM38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BN38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BO38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BP38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BQ38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BR38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BS38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BT38" s="105">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BV38" s="101">
         <f t="shared" ref="BV38:BV40" si="15">SUM(M38:BT38)</f>
-        <v>600</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15427,305 +15426,305 @@
       </c>
       <c r="M40" s="105">
         <f t="shared" ref="M40:BT40" si="16">M38-M39</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BE40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BG40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BH40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BJ40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BL40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BM40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BN40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BO40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BP40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BQ40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BR40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BS40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BT40" s="105">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BV40" s="101">
         <f t="shared" si="15"/>
-        <v>600</v>
+        <v>720</v>
       </c>
     </row>
     <row r="41" spans="2:74" ht="381.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:74" ht="223.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:74" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="179" t="s">
+      <c r="E44" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="162"/>
-      <c r="L44" s="162"/>
-      <c r="M44" s="162"/>
-      <c r="N44" s="162"/>
-      <c r="O44" s="162"/>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="162"/>
-      <c r="R44" s="162"/>
-      <c r="S44" s="162"/>
-      <c r="T44" s="162"/>
-      <c r="U44" s="162"/>
-      <c r="V44" s="162"/>
-      <c r="W44" s="162"/>
-      <c r="X44" s="162"/>
-      <c r="Y44" s="162"/>
-      <c r="Z44" s="162"/>
-      <c r="AA44" s="162"/>
-      <c r="AB44" s="162"/>
-      <c r="AC44" s="162"/>
-      <c r="AD44" s="162"/>
-      <c r="AE44" s="162"/>
-      <c r="AF44" s="162"/>
-      <c r="AG44" s="162"/>
-      <c r="AH44" s="162"/>
-      <c r="AI44" s="162"/>
-      <c r="AJ44" s="162"/>
-      <c r="AK44" s="162"/>
-      <c r="AL44" s="162"/>
-      <c r="AM44" s="162"/>
-      <c r="AN44" s="162"/>
-      <c r="AO44" s="162"/>
-      <c r="AP44" s="162"/>
-      <c r="AQ44" s="162"/>
-      <c r="AR44" s="162"/>
-      <c r="AS44" s="162"/>
-      <c r="AT44" s="162"/>
-      <c r="AU44" s="162"/>
-      <c r="AV44" s="162"/>
-      <c r="AW44" s="162"/>
-      <c r="AX44" s="162"/>
-      <c r="AY44" s="162"/>
-      <c r="AZ44" s="162"/>
-      <c r="BA44" s="162"/>
-      <c r="BB44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+      <c r="O44" s="163"/>
+      <c r="P44" s="163"/>
+      <c r="Q44" s="163"/>
+      <c r="R44" s="163"/>
+      <c r="S44" s="163"/>
+      <c r="T44" s="163"/>
+      <c r="U44" s="163"/>
+      <c r="V44" s="163"/>
+      <c r="W44" s="163"/>
+      <c r="X44" s="163"/>
+      <c r="Y44" s="163"/>
+      <c r="Z44" s="163"/>
+      <c r="AA44" s="163"/>
+      <c r="AB44" s="163"/>
+      <c r="AC44" s="163"/>
+      <c r="AD44" s="163"/>
+      <c r="AE44" s="163"/>
+      <c r="AF44" s="163"/>
+      <c r="AG44" s="163"/>
+      <c r="AH44" s="163"/>
+      <c r="AI44" s="163"/>
+      <c r="AJ44" s="163"/>
+      <c r="AK44" s="163"/>
+      <c r="AL44" s="163"/>
+      <c r="AM44" s="163"/>
+      <c r="AN44" s="163"/>
+      <c r="AO44" s="163"/>
+      <c r="AP44" s="163"/>
+      <c r="AQ44" s="163"/>
+      <c r="AR44" s="163"/>
+      <c r="AS44" s="163"/>
+      <c r="AT44" s="163"/>
+      <c r="AU44" s="163"/>
+      <c r="AV44" s="163"/>
+      <c r="AW44" s="163"/>
+      <c r="AX44" s="163"/>
+      <c r="AY44" s="163"/>
+      <c r="AZ44" s="163"/>
+      <c r="BA44" s="163"/>
+      <c r="BB44" s="164"/>
     </row>
     <row r="45" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16718,7 +16717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFDD8047"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18314,10 +18313,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H40">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H40" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$N$4:$N$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I40">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I40" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$L$4:$L$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -18326,15 +18325,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFEAB290"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:F1004"/>
+  <dimension ref="B1:F1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18452,10 +18451,10 @@
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="120" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C9" s="120" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D9" s="121" t="s">
         <v>101</v>
@@ -18468,8 +18467,8 @@
       <c r="B10" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="120" t="s">
-        <v>124</v>
+      <c r="C10" s="142" t="s">
+        <v>186</v>
       </c>
       <c r="D10" s="121" t="s">
         <v>104</v>
@@ -18480,10 +18479,10 @@
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="120" t="s">
-        <v>114</v>
+        <v>182</v>
+      </c>
+      <c r="C11" s="142" t="s">
+        <v>183</v>
       </c>
       <c r="D11" s="121" t="s">
         <v>98</v>
@@ -18494,10 +18493,10 @@
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="120" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="121" t="s">
         <v>104</v>
@@ -18508,10 +18507,10 @@
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" s="121" t="s">
         <v>101</v>
@@ -18522,10 +18521,10 @@
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="120" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="121" t="s">
         <v>107</v>
@@ -18536,13 +18535,13 @@
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="120" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E15" s="123">
         <v>45354</v>
@@ -18553,10 +18552,10 @@
         <v>121</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E16" s="123">
         <v>45354</v>
@@ -18564,13 +18563,13 @@
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="120" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E17" s="123">
         <v>45354</v>
@@ -18578,27 +18577,27 @@
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="120" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D18" s="121" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E18" s="123">
         <v>45354</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="120" t="s">
-        <v>131</v>
+      <c r="B19" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>185</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E19" s="123">
         <v>45354</v>
@@ -18606,13 +18605,13 @@
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="120" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E20" s="123">
         <v>45354</v>
@@ -18620,41 +18619,41 @@
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="120" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D21" s="121" t="s">
         <v>104</v>
       </c>
       <c r="E21" s="123">
-        <v>45354</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="120" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C22" s="120" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="D22" s="121" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E22" s="123">
-        <v>45357</v>
+        <v>45354</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="120" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="120" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E23" s="123">
         <v>45354</v>
@@ -18662,27 +18661,27 @@
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="120" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E24" s="123">
-        <v>45354</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="120" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C25" s="120" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E25" s="123">
         <v>45357</v>
@@ -18690,13 +18689,13 @@
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="120" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C26" s="120" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E26" s="123">
         <v>45357</v>
@@ -18704,13 +18703,13 @@
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="120" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C27" s="120" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D27" s="121" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E27" s="123">
         <v>45357</v>
@@ -18718,13 +18717,13 @@
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="120" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E28" s="123">
         <v>45357</v>
@@ -18732,13 +18731,13 @@
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="120" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D29" s="121" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E29" s="123">
         <v>45357</v>
@@ -18746,41 +18745,41 @@
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="120" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D30" s="121" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E30" s="123">
         <v>45357</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="120" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C31" s="120" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D31" s="121" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E31" s="123">
         <v>45357</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="120" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="120" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="C32" s="139" t="s">
+        <v>154</v>
       </c>
       <c r="D32" s="121" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E32" s="123">
         <v>45357</v>
@@ -18788,13 +18787,13 @@
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="120" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="139" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="C33" s="120" t="s">
+        <v>156</v>
       </c>
       <c r="D33" s="121" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E33" s="123">
         <v>45357</v>
@@ -18802,13 +18801,13 @@
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="120" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C34" s="120" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D34" s="121" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E34" s="123">
         <v>45357</v>
@@ -18816,13 +18815,13 @@
     </row>
     <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="120" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C35" s="120" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D35" s="121" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E35" s="123">
         <v>45357</v>
@@ -18830,13 +18829,13 @@
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="120" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C36" s="120" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D36" s="121" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E36" s="123">
         <v>45357</v>
@@ -18844,13 +18843,13 @@
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="120" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C37" s="120" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D37" s="121" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E37" s="123">
         <v>45357</v>
@@ -18858,13 +18857,13 @@
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="120" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C38" s="120" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E38" s="123">
         <v>45357</v>
@@ -18872,41 +18871,41 @@
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="120" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C39" s="120" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D39" s="121" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E39" s="123">
         <v>45357</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="123">
+      <c r="B40" s="136" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="136" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="138">
         <v>45357</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="136" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C41" s="136" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D41" s="137" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E41" s="138">
         <v>45357</v>
@@ -18914,46 +18913,33 @@
     </row>
     <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="136" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C42" s="136" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D42" s="137" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E42" s="138">
         <v>45357</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="136" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="137" t="s">
+      <c r="B43" s="140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="140" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="138">
+      <c r="E43" s="141">
         <v>45357</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="140" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="141">
-        <v>45357</v>
-      </c>
-    </row>
+    <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19913,7 +19899,6 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
